--- a/Code/Results/Cases/Case_1_186/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_186/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.252291789024251</v>
+        <v>7.791499662811301</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.845488166861166</v>
+        <v>7.979421793717976</v>
       </c>
       <c r="E2">
-        <v>12.60848484444562</v>
+        <v>12.78113212355476</v>
       </c>
       <c r="F2">
-        <v>24.43435584102215</v>
+        <v>33.68331326159966</v>
       </c>
       <c r="G2">
-        <v>42.63170522972549</v>
+        <v>39.98373466790397</v>
       </c>
       <c r="H2">
-        <v>10.58830359491885</v>
+        <v>16.62529220587424</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.132933620516146</v>
+        <v>9.476955208697857</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>70.01024218307613</v>
+        <v>43.95904467710612</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.890840022567056</v>
+        <v>7.719347164572008</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.584319072729425</v>
+        <v>7.920768918707324</v>
       </c>
       <c r="E3">
-        <v>11.90428611766233</v>
+        <v>12.67280165532295</v>
       </c>
       <c r="F3">
-        <v>22.4163252266959</v>
+        <v>34.0392461495851</v>
       </c>
       <c r="G3">
-        <v>38.81136664308477</v>
+        <v>40.07737091583905</v>
       </c>
       <c r="H3">
-        <v>10.11931963553894</v>
+        <v>16.76100181909425</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.499620714275054</v>
+        <v>9.488605629597814</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>64.99916502286439</v>
+        <v>41.65077017455607</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.66375322797361</v>
+        <v>7.676545110950357</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.421030463159862</v>
+        <v>7.88484083458188</v>
       </c>
       <c r="E4">
-        <v>11.50531490990125</v>
+        <v>12.60932530990231</v>
       </c>
       <c r="F4">
-        <v>21.54427068800295</v>
+        <v>34.28109325198261</v>
       </c>
       <c r="G4">
-        <v>36.54673091626138</v>
+        <v>40.17298596367799</v>
       </c>
       <c r="H4">
-        <v>9.882849880541748</v>
+        <v>16.85259268047961</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.100773404493375</v>
+        <v>9.498839807170189</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>61.79866417063604</v>
+        <v>40.16145796677337</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.570009453967263</v>
+        <v>7.659498843644509</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.353775780831864</v>
+        <v>7.870229566921378</v>
       </c>
       <c r="E5">
-        <v>11.34344007732275</v>
+        <v>12.58424455375424</v>
       </c>
       <c r="F5">
-        <v>21.2226399262908</v>
+        <v>34.38538386675391</v>
       </c>
       <c r="G5">
-        <v>35.64300611591483</v>
+        <v>40.2213212284346</v>
       </c>
       <c r="H5">
-        <v>9.798463533336573</v>
+        <v>16.89196380966665</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.935326507223184</v>
+        <v>9.503779666131457</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>60.46143347345345</v>
+        <v>39.53681769640134</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.55437382023849</v>
+        <v>7.656692770693133</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.34256608878005</v>
+        <v>7.867805414550159</v>
       </c>
       <c r="E6">
-        <v>11.31659878875435</v>
+        <v>12.58012803471063</v>
       </c>
       <c r="F6">
-        <v>21.17122390284608</v>
+        <v>34.40304411943347</v>
       </c>
       <c r="G6">
-        <v>35.4940778044707</v>
+        <v>40.22990670342039</v>
       </c>
       <c r="H6">
-        <v>9.785146009197721</v>
+        <v>16.89862409841759</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.907667675661318</v>
+        <v>9.50464623392898</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>60.23734435746972</v>
+        <v>39.43203822832454</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.662493702130931</v>
+        <v>7.676313591700799</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.420126288891134</v>
+        <v>7.884643650613603</v>
       </c>
       <c r="E7">
-        <v>11.50312917332509</v>
+        <v>12.60898384955631</v>
       </c>
       <c r="F7">
-        <v>21.53979855970005</v>
+        <v>34.28247668825888</v>
       </c>
       <c r="G7">
-        <v>36.5344665563436</v>
+        <v>40.17360018022924</v>
       </c>
       <c r="H7">
-        <v>9.881664611787521</v>
+        <v>16.85311540521974</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.098554410164357</v>
+        <v>9.498903319907281</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>61.78076571913389</v>
+        <v>40.1531050941323</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.128780252694737</v>
+        <v>7.766321647767059</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.756054208771404</v>
+        <v>7.959185649892521</v>
       </c>
       <c r="E8">
-        <v>12.33307298766757</v>
+        <v>12.74316266501383</v>
       </c>
       <c r="F8">
-        <v>23.66845260637745</v>
+        <v>33.80112712525285</v>
       </c>
       <c r="G8">
-        <v>41.29659577442653</v>
+        <v>40.00798395893003</v>
       </c>
       <c r="H8">
-        <v>10.41532669587586</v>
+        <v>16.67035068288223</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.91637757656242</v>
+        <v>9.480329687336178</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>68.30684412773807</v>
+        <v>43.17830198111537</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.999596554590564</v>
+        <v>7.953872726207792</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.391486594991825</v>
+        <v>8.105671179164059</v>
       </c>
       <c r="E9">
-        <v>14.54450097187923</v>
+        <v>13.02938020988824</v>
       </c>
       <c r="F9">
-        <v>29.66269610149328</v>
+        <v>33.04776979516991</v>
       </c>
       <c r="G9">
-        <v>51.3900598824536</v>
+        <v>39.99439822443886</v>
       </c>
       <c r="H9">
-        <v>12.6913953280687</v>
+        <v>16.37894458390155</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.463471691339771</v>
+        <v>9.468586282591319</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>80.36505564835753</v>
+        <v>48.52641934119064</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.671697622379209</v>
+        <v>8.097220145770915</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.845833308117813</v>
+        <v>8.212995193663392</v>
       </c>
       <c r="E10">
-        <v>16.19047640331403</v>
+        <v>13.25232619584661</v>
       </c>
       <c r="F10">
-        <v>34.73316973819844</v>
+        <v>32.61840117645611</v>
       </c>
       <c r="G10">
-        <v>59.53506575793045</v>
+        <v>40.18455212624162</v>
       </c>
       <c r="H10">
-        <v>14.68522390175901</v>
+        <v>16.20767506200129</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.60777241143091</v>
+        <v>9.475319054512346</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>88.92772774302395</v>
+        <v>52.08665506643323</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.000028525114484</v>
+        <v>8.163381168660546</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.05087482719623</v>
+        <v>8.261651783666444</v>
       </c>
       <c r="E11">
-        <v>16.95470830403223</v>
+        <v>13.35618698965057</v>
       </c>
       <c r="F11">
-        <v>37.25241364473552</v>
+        <v>32.45177803091656</v>
       </c>
       <c r="G11">
-        <v>63.50620478073249</v>
+        <v>40.31627404823673</v>
       </c>
       <c r="H11">
-        <v>15.66188123836775</v>
+        <v>16.13949796863287</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.14435236453216</v>
+        <v>9.48178154238172</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>92.81676267931121</v>
+        <v>53.62445289993632</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.122607530143203</v>
+        <v>8.188549722782717</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.128441380080979</v>
+        <v>8.28004429704492</v>
       </c>
       <c r="E12">
-        <v>17.24857588569784</v>
+        <v>13.39584069452359</v>
       </c>
       <c r="F12">
-        <v>38.24647738344913</v>
+        <v>32.39295649522369</v>
       </c>
       <c r="G12">
-        <v>65.06270987601629</v>
+        <v>40.37276491235169</v>
       </c>
       <c r="H12">
-        <v>16.04531468271741</v>
+        <v>16.11511784690149</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.35167265102909</v>
+        <v>9.484722454537321</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>94.29711142098006</v>
+        <v>54.19492290043208</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.096282213139299</v>
+        <v>8.183124467833586</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.111736130131955</v>
+        <v>8.276084733668478</v>
       </c>
       <c r="E13">
-        <v>17.18504109296703</v>
+        <v>13.38728658836627</v>
       </c>
       <c r="F13">
-        <v>38.0304043319635</v>
+        <v>32.40543225774586</v>
       </c>
       <c r="G13">
-        <v>64.72484130299293</v>
+        <v>40.36030314277894</v>
       </c>
       <c r="H13">
-        <v>15.96205580703811</v>
+        <v>16.12030402904832</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.30680139296613</v>
+        <v>9.484067043824766</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>93.97777694124881</v>
+        <v>54.07259078518927</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.010146997373468</v>
+        <v>8.165449625630499</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.057256652930539</v>
+        <v>8.263165652181959</v>
       </c>
       <c r="E14">
-        <v>16.97877907004656</v>
+        <v>13.35944298876827</v>
       </c>
       <c r="F14">
-        <v>37.33332193330901</v>
+        <v>32.44685221615565</v>
       </c>
       <c r="G14">
-        <v>63.6330963553034</v>
+        <v>40.32078857306577</v>
       </c>
       <c r="H14">
-        <v>15.69312770745227</v>
+        <v>16.1374631850442</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.16131277843789</v>
+        <v>9.482013571426972</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>92.93833698941469</v>
+        <v>53.67162399080655</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.957165075764228</v>
+        <v>8.154637573870247</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.023882236647871</v>
+        <v>8.255247824433969</v>
       </c>
       <c r="E15">
-        <v>16.85310252423642</v>
+        <v>13.34242935035918</v>
       </c>
       <c r="F15">
-        <v>36.91191660017029</v>
+        <v>32.47278429379911</v>
       </c>
       <c r="G15">
-        <v>62.9717766844315</v>
+        <v>40.29744841730878</v>
       </c>
       <c r="H15">
-        <v>15.53030564291338</v>
+        <v>16.14816192722057</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.07280153579925</v>
+        <v>9.480820195508452</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>92.30295909712832</v>
+        <v>53.42447314250443</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.649983565381746</v>
+        <v>8.092913631274339</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.832412135006046</v>
+        <v>8.209811278071649</v>
       </c>
       <c r="E16">
-        <v>16.14101508544882</v>
+        <v>13.24558545328316</v>
       </c>
       <c r="F16">
-        <v>34.57352755733145</v>
+        <v>32.62988051689053</v>
       </c>
       <c r="G16">
-        <v>59.28199418917971</v>
+        <v>40.1768635621419</v>
       </c>
       <c r="H16">
-        <v>14.62307016074862</v>
+        <v>16.21232964898317</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.57316813143765</v>
+        <v>9.474965544570894</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>88.67410338042285</v>
+        <v>51.98450146879048</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.458196728426618</v>
+        <v>8.055276026436392</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.714620908468945</v>
+        <v>8.181888667229362</v>
       </c>
       <c r="E17">
-        <v>15.70946776828678</v>
+        <v>13.18678085312128</v>
       </c>
       <c r="F17">
-        <v>33.1989792673152</v>
+        <v>32.73370934872795</v>
       </c>
       <c r="G17">
-        <v>57.09504298713799</v>
+        <v>40.11455569831428</v>
       </c>
       <c r="H17">
-        <v>14.08644497217584</v>
+        <v>16.25421400590619</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.27185318600545</v>
+        <v>9.472248158749093</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>86.45146092296501</v>
+        <v>51.0800990749915</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.346601338342738</v>
+        <v>8.033718755664314</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.646702902356924</v>
+        <v>8.165813253621558</v>
       </c>
       <c r="E18">
-        <v>15.46253511096918</v>
+        <v>13.15318945026249</v>
       </c>
       <c r="F18">
-        <v>32.42763217052628</v>
+        <v>32.79612123695481</v>
       </c>
       <c r="G18">
-        <v>55.86105596636413</v>
+        <v>40.0829693387151</v>
       </c>
       <c r="H18">
-        <v>13.78406551083401</v>
+        <v>16.27921875048935</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.09991318029002</v>
+        <v>9.471004911754966</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>85.17182029421463</v>
+        <v>50.55221792508429</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.313490848649879</v>
+        <v>8.026436115469989</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.623674584000343</v>
+        <v>8.160368078741326</v>
       </c>
       <c r="E19">
-        <v>15.3790935136088</v>
+        <v>13.14185655806184</v>
       </c>
       <c r="F19">
-        <v>32.16955034884151</v>
+        <v>32.8177107425529</v>
       </c>
       <c r="G19">
-        <v>55.44700511165503</v>
+        <v>40.073001215587</v>
       </c>
       <c r="H19">
-        <v>13.68267698089272</v>
+        <v>16.28784077500645</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.04188765041456</v>
+        <v>9.47063873132503</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>84.73813335298345</v>
+        <v>50.37216882250704</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.47874454067399</v>
+        <v>8.059273367306421</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.727176421193203</v>
+        <v>8.184862700653214</v>
       </c>
       <c r="E20">
-        <v>15.75526058931624</v>
+        <v>13.19301694629229</v>
       </c>
       <c r="F20">
-        <v>33.3432537173493</v>
+        <v>32.72237688192185</v>
       </c>
       <c r="G20">
-        <v>57.32528947078109</v>
+        <v>40.1207475995902</v>
       </c>
       <c r="H20">
-        <v>14.14289926810072</v>
+        <v>16.24966048380386</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.30377607705144</v>
+        <v>9.47250430350536</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>86.68814116271895</v>
+        <v>51.17717126922193</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.035492752334463</v>
+        <v>8.17063821440504</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.073259063836668</v>
+        <v>8.266961256636431</v>
       </c>
       <c r="E21">
-        <v>17.03921920645614</v>
+        <v>13.36761275587478</v>
       </c>
       <c r="F21">
-        <v>37.53688579785192</v>
+        <v>32.43456895928168</v>
       </c>
       <c r="G21">
-        <v>63.95218933014593</v>
+        <v>40.33221481816295</v>
       </c>
       <c r="H21">
-        <v>15.77171274164447</v>
+        <v>16.13238382367827</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.20391587834343</v>
+        <v>9.482603289437511</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>93.24335240505206</v>
+        <v>53.78972021384958</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.389283451833117</v>
+        <v>8.244080652804005</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.299127082753611</v>
+        <v>8.320422886560047</v>
       </c>
       <c r="E22">
-        <v>17.90627329937891</v>
+        <v>13.48359642444449</v>
       </c>
       <c r="F22">
-        <v>40.51951051917747</v>
+        <v>32.27145760282574</v>
       </c>
       <c r="G22">
-        <v>68.60279685517916</v>
+        <v>40.50898414913072</v>
       </c>
       <c r="H22">
-        <v>16.91851960969387</v>
+        <v>16.06413071138905</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.81777496559347</v>
+        <v>9.492083363951735</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>97.57910807966257</v>
+        <v>55.42801228209242</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.201300131534744</v>
+        <v>8.204829984511903</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.178531003388571</v>
+        <v>8.291910106526991</v>
       </c>
       <c r="E23">
-        <v>17.43993092021623</v>
+        <v>13.42153115777326</v>
       </c>
       <c r="F23">
-        <v>38.90103703733823</v>
+        <v>32.35617753678191</v>
       </c>
       <c r="G23">
-        <v>66.08474113858955</v>
+        <v>40.41108159476568</v>
       </c>
       <c r="H23">
-        <v>16.29725639845207</v>
+        <v>16.09977818145209</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.48697948891438</v>
+        <v>9.486758624619224</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>95.25647051859414</v>
+        <v>54.55997908024215</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.469459044988518</v>
+        <v>8.057465915252243</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.721500702183938</v>
+        <v>8.183518209030467</v>
       </c>
       <c r="E24">
-        <v>15.7345541665567</v>
+        <v>13.19019693326216</v>
       </c>
       <c r="F24">
-        <v>33.27796902101009</v>
+        <v>32.72749183133309</v>
       </c>
       <c r="G24">
-        <v>57.22112339186423</v>
+        <v>40.11793505764194</v>
       </c>
       <c r="H24">
-        <v>14.11735742173095</v>
+        <v>16.25171625320153</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.28933984603902</v>
+        <v>9.472387507171327</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>86.58114426804784</v>
+        <v>51.13330961661616</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.768945177170104</v>
+        <v>7.902073055935456</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.222006591158197</v>
+        <v>8.066060224427412</v>
       </c>
       <c r="E25">
-        <v>13.94116550517165</v>
+        <v>12.94962211662321</v>
       </c>
       <c r="F25">
-        <v>27.94003171660736</v>
+        <v>33.23036107043366</v>
       </c>
       <c r="G25">
-        <v>48.55776919728225</v>
+        <v>39.96359993085994</v>
       </c>
       <c r="H25">
-        <v>12.00204846435014</v>
+        <v>16.4504029104135</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.047348442695075</v>
+        <v>9.469087819013874</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>77.16403832937726</v>
+        <v>47.1436935493824</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_186/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_186/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.791499662811301</v>
+        <v>7.252291789024228</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.979421793717976</v>
+        <v>6.845488166861154</v>
       </c>
       <c r="E2">
-        <v>12.78113212355476</v>
+        <v>12.60848484444551</v>
       </c>
       <c r="F2">
-        <v>33.68331326159966</v>
+        <v>24.43435584102235</v>
       </c>
       <c r="G2">
-        <v>39.98373466790397</v>
+        <v>42.63170522972587</v>
       </c>
       <c r="H2">
-        <v>16.62529220587424</v>
+        <v>10.58830359491887</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.476955208697857</v>
+        <v>8.132933620516065</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>43.95904467710612</v>
+        <v>70.0102421830757</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.719347164572008</v>
+        <v>6.890840022566961</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.920768918707324</v>
+        <v>6.584319072729437</v>
       </c>
       <c r="E3">
-        <v>12.67280165532295</v>
+        <v>11.90428611766234</v>
       </c>
       <c r="F3">
-        <v>34.0392461495851</v>
+        <v>22.41632522669593</v>
       </c>
       <c r="G3">
-        <v>40.07737091583905</v>
+        <v>38.8113666430853</v>
       </c>
       <c r="H3">
-        <v>16.76100181909425</v>
+        <v>10.11931963553884</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.488605629597814</v>
+        <v>7.499620714275035</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>41.65077017455607</v>
+        <v>64.99916502286436</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.676545110950357</v>
+        <v>6.663753227973516</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.88484083458188</v>
+        <v>6.421030463159926</v>
       </c>
       <c r="E4">
-        <v>12.60932530990231</v>
+        <v>11.50531490990131</v>
       </c>
       <c r="F4">
-        <v>34.28109325198261</v>
+        <v>21.54427068800292</v>
       </c>
       <c r="G4">
-        <v>40.17298596367799</v>
+        <v>36.54673091626137</v>
       </c>
       <c r="H4">
-        <v>16.85259268047961</v>
+        <v>9.882849880541732</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.498839807170189</v>
+        <v>7.100773404493407</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>40.16145796677337</v>
+        <v>61.79866417063624</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.659498843644509</v>
+        <v>6.570009453967119</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.870229566921378</v>
+        <v>6.35377578083194</v>
       </c>
       <c r="E5">
-        <v>12.58424455375424</v>
+        <v>11.3434400773228</v>
       </c>
       <c r="F5">
-        <v>34.38538386675391</v>
+        <v>21.22263992629055</v>
       </c>
       <c r="G5">
-        <v>40.2213212284346</v>
+        <v>35.64300611591468</v>
       </c>
       <c r="H5">
-        <v>16.89196380966665</v>
+        <v>9.798463533336472</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.503779666131457</v>
+        <v>6.935326507223281</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>39.53681769640134</v>
+        <v>60.46143347345401</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.656692770693133</v>
+        <v>6.554373820238442</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.867805414550159</v>
+        <v>6.342566088780101</v>
       </c>
       <c r="E6">
-        <v>12.58012803471063</v>
+        <v>11.31659878875445</v>
       </c>
       <c r="F6">
-        <v>34.40304411943347</v>
+        <v>21.17122390284601</v>
       </c>
       <c r="G6">
-        <v>40.22990670342039</v>
+        <v>35.49407780447066</v>
       </c>
       <c r="H6">
-        <v>16.89862409841759</v>
+        <v>9.785146009197703</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.50464623392898</v>
+        <v>6.907667675661313</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>39.43203822832454</v>
+        <v>60.23734435747002</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.676313591700799</v>
+        <v>6.662493702130955</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.884643650613603</v>
+        <v>6.420126288891109</v>
       </c>
       <c r="E7">
-        <v>12.60898384955631</v>
+        <v>11.50312917332507</v>
       </c>
       <c r="F7">
-        <v>34.28247668825888</v>
+        <v>21.53979855970007</v>
       </c>
       <c r="G7">
-        <v>40.17360018022924</v>
+        <v>36.53446655634367</v>
       </c>
       <c r="H7">
-        <v>16.85311540521974</v>
+        <v>9.88166461178754</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.498903319907281</v>
+        <v>7.098554410164342</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>40.1531050941323</v>
+        <v>61.78076571913377</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.766321647767059</v>
+        <v>7.128780252694692</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.959185649892521</v>
+        <v>6.756054208771385</v>
       </c>
       <c r="E8">
-        <v>12.74316266501383</v>
+        <v>12.33307298766748</v>
       </c>
       <c r="F8">
-        <v>33.80112712525285</v>
+        <v>23.66845260637757</v>
       </c>
       <c r="G8">
-        <v>40.00798395893003</v>
+        <v>41.29659577442683</v>
       </c>
       <c r="H8">
-        <v>16.67035068288223</v>
+        <v>10.4153266958759</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.480329687336178</v>
+        <v>7.916377576562398</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>43.17830198111537</v>
+        <v>68.30684412773779</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.953872726207792</v>
+        <v>7.99959655459052</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.105671179164059</v>
+        <v>7.391486594991818</v>
       </c>
       <c r="E9">
-        <v>13.02938020988824</v>
+        <v>14.54450097187919</v>
       </c>
       <c r="F9">
-        <v>33.04776979516991</v>
+        <v>29.66269610149348</v>
       </c>
       <c r="G9">
-        <v>39.99439822443886</v>
+        <v>51.39005988245385</v>
       </c>
       <c r="H9">
-        <v>16.37894458390155</v>
+        <v>12.69139532806879</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.468586282591319</v>
+        <v>9.463471691339725</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>48.52641934119064</v>
+        <v>80.36505564835751</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.097220145770915</v>
+        <v>8.671697622379243</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.212995193663392</v>
+        <v>7.845833308117818</v>
       </c>
       <c r="E10">
-        <v>13.25232619584661</v>
+        <v>16.1904764033142</v>
       </c>
       <c r="F10">
-        <v>32.61840117645611</v>
+        <v>34.73316973819834</v>
       </c>
       <c r="G10">
-        <v>40.18455212624162</v>
+        <v>59.5350657579303</v>
       </c>
       <c r="H10">
-        <v>16.20767506200129</v>
+        <v>14.685223901759</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.475319054512346</v>
+        <v>10.60777241143104</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>52.08665506643323</v>
+        <v>88.92772774302458</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.163381168660546</v>
+        <v>9.000028525114418</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.261651783666444</v>
+        <v>8.050874827196234</v>
       </c>
       <c r="E11">
-        <v>13.35618698965057</v>
+        <v>16.95470830403232</v>
       </c>
       <c r="F11">
-        <v>32.45177803091656</v>
+        <v>37.25241364473561</v>
       </c>
       <c r="G11">
-        <v>40.31627404823673</v>
+        <v>63.50620478073262</v>
       </c>
       <c r="H11">
-        <v>16.13949796863287</v>
+        <v>15.66188123836774</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.48178154238172</v>
+        <v>11.1443523645322</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>53.62445289993632</v>
+        <v>92.81676267931161</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.188549722782717</v>
+        <v>9.122607530143183</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.28004429704492</v>
+        <v>8.128441380081057</v>
       </c>
       <c r="E12">
-        <v>13.39584069452359</v>
+        <v>17.24857588569778</v>
       </c>
       <c r="F12">
-        <v>32.39295649522369</v>
+        <v>38.2464773834493</v>
       </c>
       <c r="G12">
-        <v>40.37276491235169</v>
+        <v>65.06270987601657</v>
       </c>
       <c r="H12">
-        <v>16.11511784690149</v>
+        <v>16.0453146827175</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.484722454537321</v>
+        <v>11.35167265102909</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>54.19492290043208</v>
+        <v>94.29711142098007</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.183124467833586</v>
+        <v>9.096282213139474</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.276084733668478</v>
+        <v>8.111736130131945</v>
       </c>
       <c r="E13">
-        <v>13.38728658836627</v>
+        <v>17.18504109296706</v>
       </c>
       <c r="F13">
-        <v>32.40543225774586</v>
+        <v>38.03040433196384</v>
       </c>
       <c r="G13">
-        <v>40.36030314277894</v>
+        <v>64.72484130299338</v>
       </c>
       <c r="H13">
-        <v>16.12030402904832</v>
+        <v>15.96205580703826</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.484067043824766</v>
+        <v>11.30680139296612</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>54.07259078518927</v>
+        <v>93.97777694124879</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.165449625630499</v>
+        <v>9.010146997373496</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.263165652181959</v>
+        <v>8.057256652930553</v>
       </c>
       <c r="E14">
-        <v>13.35944298876827</v>
+        <v>16.97877907004677</v>
       </c>
       <c r="F14">
-        <v>32.44685221615565</v>
+        <v>37.33332193330912</v>
       </c>
       <c r="G14">
-        <v>40.32078857306577</v>
+        <v>63.6330963553035</v>
       </c>
       <c r="H14">
-        <v>16.1374631850442</v>
+        <v>15.69312770745238</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.482013571426972</v>
+        <v>11.16131277843803</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>53.67162399080655</v>
+        <v>92.93833698941536</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.154637573870247</v>
+        <v>8.957165075764197</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.255247824433969</v>
+        <v>8.023882236647765</v>
       </c>
       <c r="E15">
-        <v>13.34242935035918</v>
+        <v>16.85310252423637</v>
       </c>
       <c r="F15">
-        <v>32.47278429379911</v>
+        <v>36.91191660017014</v>
       </c>
       <c r="G15">
-        <v>40.29744841730878</v>
+        <v>62.97177668443121</v>
       </c>
       <c r="H15">
-        <v>16.14816192722057</v>
+        <v>15.53030564291331</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.480820195508452</v>
+        <v>11.0728015357992</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>53.42447314250443</v>
+        <v>92.30295909712815</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.092913631274339</v>
+        <v>8.649983565381641</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.209811278071649</v>
+        <v>7.832412135006041</v>
       </c>
       <c r="E16">
-        <v>13.24558545328316</v>
+        <v>16.14101508544881</v>
       </c>
       <c r="F16">
-        <v>32.62988051689053</v>
+        <v>34.57352755733164</v>
       </c>
       <c r="G16">
-        <v>40.1768635621419</v>
+        <v>59.28199418917988</v>
       </c>
       <c r="H16">
-        <v>16.21232964898317</v>
+        <v>14.62307016074873</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.474965544570894</v>
+        <v>10.57316813143765</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>51.98450146879048</v>
+        <v>88.67410338042276</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.055276026436392</v>
+        <v>8.458196728426634</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.181888667229362</v>
+        <v>7.714620908468977</v>
       </c>
       <c r="E17">
-        <v>13.18678085312128</v>
+        <v>15.70946776828698</v>
       </c>
       <c r="F17">
-        <v>32.73370934872795</v>
+        <v>33.19897926731531</v>
       </c>
       <c r="G17">
-        <v>40.11455569831428</v>
+        <v>57.09504298713792</v>
       </c>
       <c r="H17">
-        <v>16.25421400590619</v>
+        <v>14.08644497217591</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.472248158749093</v>
+        <v>10.27185318600556</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>51.0800990749915</v>
+        <v>86.45146092296578</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.033718755664314</v>
+        <v>8.346601338342758</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.165813253621558</v>
+        <v>7.646702902356811</v>
       </c>
       <c r="E18">
-        <v>13.15318945026249</v>
+        <v>15.46253511096921</v>
       </c>
       <c r="F18">
-        <v>32.79612123695481</v>
+        <v>32.42763217052637</v>
       </c>
       <c r="G18">
-        <v>40.0829693387151</v>
+        <v>55.86105596636409</v>
       </c>
       <c r="H18">
-        <v>16.27921875048935</v>
+        <v>13.78406551083402</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.471004911754966</v>
+        <v>10.09991318029002</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>50.55221792508429</v>
+        <v>85.17182029421478</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.026436115469989</v>
+        <v>8.313490848650087</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.160368078741326</v>
+        <v>7.623674584000237</v>
       </c>
       <c r="E19">
-        <v>13.14185655806184</v>
+        <v>15.37909351360877</v>
       </c>
       <c r="F19">
-        <v>32.8177107425529</v>
+        <v>32.1695503488419</v>
       </c>
       <c r="G19">
-        <v>40.073001215587</v>
+        <v>55.44700511165556</v>
       </c>
       <c r="H19">
-        <v>16.28784077500645</v>
+        <v>13.68267698089281</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.47063873132503</v>
+        <v>10.04188765041451</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>50.37216882250704</v>
+        <v>84.73813335298324</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.059273367306421</v>
+        <v>8.478744540673949</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.184862700653214</v>
+        <v>7.727176421193191</v>
       </c>
       <c r="E20">
-        <v>13.19301694629229</v>
+        <v>15.75526058931618</v>
       </c>
       <c r="F20">
-        <v>32.72237688192185</v>
+        <v>33.34325371734905</v>
       </c>
       <c r="G20">
-        <v>40.1207475995902</v>
+        <v>57.32528947078072</v>
       </c>
       <c r="H20">
-        <v>16.24966048380386</v>
+        <v>14.14289926810065</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.47250430350536</v>
+        <v>10.30377607705142</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>51.17717126922193</v>
+        <v>86.68814116271874</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.17063821440504</v>
+        <v>9.035492752334573</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.266961256636431</v>
+        <v>8.073259063836637</v>
       </c>
       <c r="E21">
-        <v>13.36761275587478</v>
+        <v>17.03921920645596</v>
       </c>
       <c r="F21">
-        <v>32.43456895928168</v>
+        <v>37.53688579785204</v>
       </c>
       <c r="G21">
-        <v>40.33221481816295</v>
+        <v>63.95218933014611</v>
       </c>
       <c r="H21">
-        <v>16.13238382367827</v>
+        <v>15.77171274164454</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.482603289437511</v>
+        <v>11.20391587834328</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>53.78972021384958</v>
+        <v>93.24335240505147</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.244080652804005</v>
+        <v>9.389283451833169</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.320422886560047</v>
+        <v>8.299127082753605</v>
       </c>
       <c r="E22">
-        <v>13.48359642444449</v>
+        <v>17.90627329937906</v>
       </c>
       <c r="F22">
-        <v>32.27145760282574</v>
+        <v>40.5195105191775</v>
       </c>
       <c r="G22">
-        <v>40.50898414913072</v>
+        <v>68.60279685517925</v>
       </c>
       <c r="H22">
-        <v>16.06413071138905</v>
+        <v>16.91851960969386</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.492083363951735</v>
+        <v>11.81777496559351</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>55.42801228209242</v>
+        <v>97.57910807966309</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.204829984511903</v>
+        <v>9.201300131534596</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.291910106526991</v>
+        <v>8.178531003388557</v>
       </c>
       <c r="E23">
-        <v>13.42153115777326</v>
+        <v>17.43993092021624</v>
       </c>
       <c r="F23">
-        <v>32.35617753678191</v>
+        <v>38.90103703733823</v>
       </c>
       <c r="G23">
-        <v>40.41108159476568</v>
+        <v>66.08474113858962</v>
       </c>
       <c r="H23">
-        <v>16.09977818145209</v>
+        <v>16.29725639845201</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.486758624619224</v>
+        <v>11.4869794889144</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>54.55997908024215</v>
+        <v>95.25647051859426</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.057465915252243</v>
+        <v>8.469459044988485</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.183518209030467</v>
+        <v>7.721500702183866</v>
       </c>
       <c r="E24">
-        <v>13.19019693326216</v>
+        <v>15.73455416655683</v>
       </c>
       <c r="F24">
-        <v>32.72749183133309</v>
+        <v>33.27796902100994</v>
       </c>
       <c r="G24">
-        <v>40.11793505764194</v>
+        <v>57.22112339186387</v>
       </c>
       <c r="H24">
-        <v>16.25171625320153</v>
+        <v>14.11735742173089</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.472387507171327</v>
+        <v>10.28933984603908</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>51.13330961661616</v>
+        <v>86.58114426804809</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.902073055935456</v>
+        <v>7.768945177170079</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.066060224427412</v>
+        <v>7.222006591158167</v>
       </c>
       <c r="E25">
-        <v>12.94962211662321</v>
+        <v>13.94116550517161</v>
       </c>
       <c r="F25">
-        <v>33.23036107043366</v>
+        <v>27.94003171660744</v>
       </c>
       <c r="G25">
-        <v>39.96359993085994</v>
+        <v>48.55776919728233</v>
       </c>
       <c r="H25">
-        <v>16.4504029104135</v>
+        <v>12.00204846435019</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.469087819013874</v>
+        <v>9.047348442695071</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>47.1436935493824</v>
+        <v>77.16403832937712</v>
       </c>
       <c r="N25">
         <v>0</v>
